--- a/Chain.of.Heroes/Tools/ExcelParser/Data/NormalMonaster_Goblin.xlsx
+++ b/Chain.of.Heroes/Tools/ExcelParser/Data/NormalMonaster_Goblin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junha\OneDrive\문서\GitHub\Chain_Of_Heroes\Chain.of.Heroes\Tools\ExcelParser\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9AFBBAD-78D1-4D58-8A20-69FB7F182E1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3067A199-5110-42D9-9971-D669F1FCC77A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -127,10 +127,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Goblin</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>#고블린 레벨1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -258,6 +254,10 @@
   <si>
     <t>Monster_Level</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoblinWarrior</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -844,8 +844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -961,10 +961,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>66</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>67</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>7</v>
@@ -996,10 +996,10 @@
         <v>20010000</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="D5" s="17">
         <v>1</v>
@@ -1034,10 +1034,10 @@
         <v>20010001</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="D6" s="17">
         <v>2</v>
@@ -1072,10 +1072,10 @@
         <v>20010002</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="D7" s="17">
         <v>3</v>
@@ -1110,10 +1110,10 @@
         <v>20010003</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="D8" s="17">
         <v>4</v>
@@ -1148,10 +1148,10 @@
         <v>20010004</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="D9" s="17">
         <v>5</v>
@@ -1186,10 +1186,10 @@
         <v>20010005</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="D10" s="17">
         <v>6</v>
@@ -1224,10 +1224,10 @@
         <v>20010006</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="D11" s="17">
         <v>7</v>
@@ -1262,10 +1262,10 @@
         <v>20010007</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="D12" s="17">
         <v>8</v>
@@ -1300,10 +1300,10 @@
         <v>20010008</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="D13" s="17">
         <v>9</v>
@@ -1338,10 +1338,10 @@
         <v>20010009</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="D14" s="17">
         <v>10</v>
@@ -1376,10 +1376,10 @@
         <v>20010010</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="D15" s="17">
         <v>11</v>
@@ -1414,10 +1414,10 @@
         <v>20010011</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="D16" s="17">
         <v>12</v>
@@ -1452,10 +1452,10 @@
         <v>20010012</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="D17" s="17">
         <v>13</v>
@@ -1490,10 +1490,10 @@
         <v>20010013</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="D18" s="17">
         <v>14</v>
@@ -1528,10 +1528,10 @@
         <v>20010014</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="D19" s="17">
         <v>15</v>
@@ -1566,10 +1566,10 @@
         <v>20010015</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="D20" s="17">
         <v>16</v>
@@ -1604,10 +1604,10 @@
         <v>20010016</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="D21" s="17">
         <v>17</v>
@@ -1642,10 +1642,10 @@
         <v>20010017</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="D22" s="17">
         <v>18</v>
@@ -1680,10 +1680,10 @@
         <v>20010018</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="D23" s="17">
         <v>19</v>
@@ -1718,10 +1718,10 @@
         <v>20010019</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="D24" s="17">
         <v>20</v>
@@ -1756,10 +1756,10 @@
         <v>20010020</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="D25" s="17">
         <v>21</v>
@@ -1794,10 +1794,10 @@
         <v>20010021</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="D26" s="17">
         <v>22</v>
@@ -1832,10 +1832,10 @@
         <v>20010022</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="D27" s="17">
         <v>23</v>
@@ -1870,10 +1870,10 @@
         <v>20010023</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="D28" s="17">
         <v>24</v>
@@ -1908,10 +1908,10 @@
         <v>20010024</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="D29" s="17">
         <v>25</v>
@@ -1946,10 +1946,10 @@
         <v>20010025</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="D30" s="17">
         <v>26</v>
@@ -1984,10 +1984,10 @@
         <v>20010026</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="D31" s="17">
         <v>27</v>
@@ -2022,10 +2022,10 @@
         <v>20010027</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="D32" s="17">
         <v>28</v>
@@ -2060,10 +2060,10 @@
         <v>20010028</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="D33" s="17">
         <v>29</v>
@@ -2098,10 +2098,10 @@
         <v>20010029</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="D34" s="17">
         <v>30</v>
@@ -2136,10 +2136,10 @@
         <v>20010030</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="D35" s="17">
         <v>31</v>
@@ -2174,10 +2174,10 @@
         <v>20010031</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="D36" s="17">
         <v>32</v>
@@ -2212,10 +2212,10 @@
         <v>20010032</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="D37" s="17">
         <v>33</v>
@@ -2250,10 +2250,10 @@
         <v>20010033</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="D38" s="17">
         <v>34</v>
@@ -2288,10 +2288,10 @@
         <v>20010034</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="D39" s="17">
         <v>35</v>
@@ -2326,10 +2326,10 @@
         <v>20010035</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="D40" s="17">
         <v>36</v>
@@ -2364,10 +2364,10 @@
         <v>20010036</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="D41" s="17">
         <v>37</v>
@@ -2402,10 +2402,10 @@
         <v>20010037</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="D42" s="17">
         <v>38</v>
@@ -2440,10 +2440,10 @@
         <v>20010038</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="D43" s="17">
         <v>39</v>
@@ -2478,10 +2478,10 @@
         <v>20010039</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="D44" s="17">
         <v>40</v>
